--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2865.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2865.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.199984832405055</v>
+        <v>0.9165092706680298</v>
       </c>
       <c r="B1">
-        <v>2.111815056771357</v>
+        <v>1.84540593624115</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.413103818893433</v>
       </c>
       <c r="D1">
-        <v>2.135770486230713</v>
+        <v>3.789582014083862</v>
       </c>
       <c r="E1">
-        <v>1.208813815486071</v>
+        <v>0.9568474888801575</v>
       </c>
     </row>
   </sheetData>
